--- a/poc-1-manipular-pdf-shopee/entradas/1 etiqueta.xlsx
+++ b/poc-1-manipular-pdf-shopee/entradas/1 etiqueta.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A167A-71C6-4945-BBF7-6F963A56651C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="orders" sheetId="2" r:id="rId4"/>
+    <sheet name="orders" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>tracking_number</t>
   </si>
@@ -46,8 +47,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,7 +56,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b>true</b>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -68,35 +69,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F0F0"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F8FF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -132,23 +119,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,21 +400,21 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="true" max="5" min="5" width="70"/>
-    <col customWidth="true" max="4" min="4" width="70"/>
-    <col customWidth="true" max="3" min="3" width="70"/>
-    <col customWidth="true" max="2" min="2" width="20"/>
-    <col customWidth="true" max="1" min="1" width="20"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="5" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -457,5 +449,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/poc-1-manipular-pdf-shopee/entradas/1 etiqueta.xlsx
+++ b/poc-1-manipular-pdf-shopee/entradas/1 etiqueta.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A167A-71C6-4945-BBF7-6F963A56651C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A527ED-B696-4236-BEC3-5291F4DDBFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="43200" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orders" sheetId="2" r:id="rId1"/>
@@ -38,10 +38,10 @@
     <t>240913U6DAYAYM</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] Product Name:Chinelo Nuvem Em Eva Masculino e Feminino Chinelo Slide em Eva; Variation Name:Verde Militar,43/44 (Medida de 29,5 cm); Price: R$ 52.90; Quantity: 1; SKU Reference No.: CH200/202-VMM-44; Parent SKU Reference No.: CH200/202-1; </t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Product Name:Chinelo Nuvem Em Eva Masculino e Feminino Chinelo Slide em Eva; Variation Name:Verde Militar,43/44 (Medida de 29,5 cm); Price: R$ 52.90; Quantity: 10000; SKU Reference No.: CH200/202-VMM-44; Parent SKU Reference No.: CH200/202-1; </t>
   </si>
 </sst>
 </file>
@@ -439,13 +439,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
